--- a/LPAutomationtest/src/main/java/com/lp/qa/testdata/RecurringBilling.xlsx
+++ b/LPAutomationtest/src/main/java/com/lp/qa/testdata/RecurringBilling.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sys\eclipse-workspace\LPAutomationtest\src\main\java\com\lp\qa\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sys\git\LPCoreAutomation\LPAutomationtest\src\main\java\com\lp\qa\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF22391-FEA3-479A-8A6B-986122C2FD2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8490AB53-D671-4967-8148-7A3E1567980A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cardEntryPatient" sheetId="1" r:id="rId1"/>
@@ -151,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>Test Case</t>
   </si>
@@ -240,10 +240,7 @@
     <t xml:space="preserve">RB Provider 600 </t>
   </si>
   <si>
-    <t>2021-03-07</t>
-  </si>
-  <si>
-    <t>2021-03-09</t>
+    <t>2021-04-05</t>
   </si>
 </sst>
 </file>
@@ -610,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0670D81B-68C7-4231-9751-6C19676A70AE}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,7 +790,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>20</v>
